--- a/data_io.xlsx
+++ b/data_io.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t xml:space="preserve">frecuencia[Hz]:</t>
   </si>
@@ -57,6 +57,9 @@
     <t xml:space="preserve">Cf (uF)</t>
   </si>
   <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
     <t xml:space="preserve">Warning</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
   </si>
   <si>
     <t xml:space="preserve">C (uF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
   </si>
   <si>
     <t xml:space="preserve">|Vth| (kV)</t>
@@ -336,6 +342,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -354,10 +364,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -483,7 +489,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.11"/>
@@ -1522,7 +1528,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -1530,7 +1536,7 @@
       <selection pane="bottomRight" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.33"/>
@@ -1618,14 +1624,16 @@
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="12" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="13" t="n">
         <v>176.7767</v>
       </c>
       <c r="D3" s="10" t="n">
@@ -1661,7 +1669,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -8542,7 +8550,7 @@
       <selection pane="bottomRight" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.33"/>
@@ -8559,13 +8567,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>6</v>
@@ -15520,15 +15528,15 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="48.66"/>
@@ -15537,23 +15545,23 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>12</v>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>15</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15566,7 +15574,9 @@
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="16"/>
+      <c r="F2" s="17" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
@@ -15576,7 +15586,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="16" t="n">
+      <c r="D3" s="17" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="10" t="n">
@@ -15626,7 +15636,7 @@
       <c r="A6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="12" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="9"/>
@@ -18158,7 +18168,7 @@
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.66"/>
@@ -18171,16 +18181,16 @@
         <v>3</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
@@ -25955,7 +25965,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.22"/>
@@ -25966,13 +25976,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27876,7 +27886,7 @@
       <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.22"/>
@@ -27889,13 +27899,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30014,7 +30024,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.45"/>
@@ -30026,22 +30036,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31072,11 +31082,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data_io.xlsx
+++ b/data_io.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t xml:space="preserve">frecuencia[Hz]:</t>
   </si>
@@ -57,9 +57,6 @@
     <t xml:space="preserve">Cf (uF)</t>
   </si>
   <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
     <t xml:space="preserve">Warning</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
   </si>
   <si>
     <t xml:space="preserve">C (uF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
   </si>
   <si>
     <t xml:space="preserve">|Vth| (kV)</t>
@@ -489,7 +483,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.11"/>
@@ -1528,7 +1522,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -1536,7 +1530,7 @@
       <selection pane="bottomRight" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.33"/>
@@ -1589,22 +1583,12 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="A2" s="9"/>
       <c r="B2" s="0"/>
-      <c r="C2" s="10" t="n">
-        <v>141.4214</v>
-      </c>
-      <c r="D2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -1624,27 +1608,15 @@
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
-      <c r="Z2" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
-        <v>2</v>
-      </c>
+      <c r="A3" s="12"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="13" t="n">
-        <v>176.7767</v>
-      </c>
-      <c r="D3" s="10" t="n">
-        <v>-0.0053</v>
-      </c>
-      <c r="E3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -1664,9 +1636,7 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
-      <c r="Z3" s="10" t="n">
-        <v>10</v>
-      </c>
+      <c r="Z3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="14"/>
@@ -8550,7 +8520,7 @@
       <selection pane="bottomRight" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.33"/>
@@ -8567,13 +8537,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>6</v>
@@ -15528,15 +15498,15 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="48.66"/>
@@ -15549,106 +15519,60 @@
         <v>3</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="17" t="s">
-        <v>17</v>
-      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="n">
-        <v>5</v>
-      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="12" t="n">
-        <v>3</v>
-      </c>
+      <c r="A6" s="9"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="n">
-        <v>10</v>
-      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9"/>
@@ -18168,7 +18092,7 @@
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.66"/>
@@ -18181,16 +18105,16 @@
         <v>3</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>21</v>
       </c>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
@@ -25965,7 +25889,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.22"/>
@@ -25976,13 +25900,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27886,7 +27810,7 @@
       <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.22"/>
@@ -27899,13 +27823,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30024,7 +29948,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.45"/>
@@ -30036,22 +29960,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31082,11 +31006,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data_io.xlsx
+++ b/data_io.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,6 @@
     <sheet name="Sfuente" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="S_Z" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Balance_S" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Warnings" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t xml:space="preserve">frecuencia[Hz]:</t>
   </si>
@@ -115,9 +114,6 @@
   </si>
   <si>
     <t xml:space="preserve">Delta Q total(VAr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fila 7: Todos los valores son nulos. Se detiene el cálculo.</t>
   </si>
 </sst>
 </file>
@@ -287,7 +283,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -396,10 +392,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +475,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.11"/>
@@ -1530,7 +1522,7 @@
       <selection pane="bottomRight" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.33"/>
@@ -8520,7 +8512,7 @@
       <selection pane="bottomRight" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.33"/>
@@ -15498,7 +15490,7 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -15506,7 +15498,7 @@
       <selection pane="bottomRight" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="48.66"/>
@@ -18092,7 +18084,7 @@
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.66"/>
@@ -25889,7 +25881,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.22"/>
@@ -27810,7 +27802,7 @@
       <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.22"/>
@@ -29944,11 +29936,11 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.45"/>
@@ -30993,33 +30985,4 @@
     <oddFooter>&amp;CffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/data_io.xlsx
+++ b/data_io.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" state="visible" r:id="rId2"/>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">C (uF)</t>
   </si>
   <si>
-    <t xml:space="preserve">|Vth| (kV)</t>
+    <t xml:space="preserve">|Vth| (V)</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;Vth (degrees)</t>
@@ -491,7 +491,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.11"/>
@@ -1530,15 +1530,15 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z11" activeCellId="0" sqref="Z11"/>
+      <selection pane="bottomRight" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.33"/>
@@ -1602,10 +1602,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="F2" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -1632,18 +1632,18 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="15" t="n">
-        <v>169.7</v>
+        <v>176.7767</v>
       </c>
       <c r="D3" s="12" t="n">
-        <v>-0.00023148</v>
+        <v>-0.0053052</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="n">
-        <v>1.061</v>
+        <v>1</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -8548,7 +8548,7 @@
       <selection pane="bottomRight" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.33"/>
@@ -15531,15 +15531,15 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="48.66"/>
@@ -15572,17 +15572,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="12" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0.2653</v>
+        <v>0</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15594,10 +15594,10 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="17" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0.2653</v>
+        <v>1</v>
       </c>
       <c r="F3" s="12" t="n">
         <v>0</v>
@@ -15608,40 +15608,54 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="F4" s="12" t="n">
-        <v>530.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="12" t="n">
-        <v>0.2653</v>
+        <v>0</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14" t="n">
+        <v>3</v>
+      </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
@@ -18161,7 +18175,7 @@
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.66"/>
@@ -25958,7 +25972,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.22"/>
@@ -27879,7 +27893,7 @@
       <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.22"/>
@@ -30017,7 +30031,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.45"/>
